--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2540980.972953294</v>
+        <v>2538585.316948115</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>42.76734719401195</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.24129850408793</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>263.8534790963691</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>29.00287931647074</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>20.73537648131371</v>
       </c>
       <c r="H5" t="n">
-        <v>33.34048845578367</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>5.858180108444342</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>154.4682899484052</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>334.6036107286097</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>339.672586013134</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186934</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>47.97295003316405</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>126.1605539371081</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>81.07546534818505</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.08971311158571</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318055</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,10 +1901,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174147</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503976</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>60.42721558712923</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>139.4837053550539</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>21.90286287505419</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546966</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333688</v>
       </c>
     </row>
     <row r="44">
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>94.05355358057936</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1186.146974221559</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="C2" t="n">
-        <v>817.1844572811472</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="D2" t="n">
-        <v>458.9187586743967</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="E2" t="n">
-        <v>73.13050607615241</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="F2" t="n">
-        <v>66.18500532694894</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872677</v>
+        <v>479.9008960562645</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054598</v>
+        <v>717.5236772744565</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463063</v>
+        <v>1013.59424383206</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698648</v>
+        <v>1654.617453451953</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>1929.733672768588</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2448.618721147459</v>
       </c>
       <c r="Q2" t="n">
         <v>2550.866182466514</v>
@@ -4355,25 +4355,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2336.351904522572</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2336.351904522572</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>2336.351904522572</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>1962.886146261492</v>
+        <v>925.3036175845675</v>
       </c>
       <c r="Y2" t="n">
-        <v>1572.746814285681</v>
+        <v>925.3036175845675</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4413,13 +4413,13 @@
         <v>323.3685994072345</v>
       </c>
       <c r="L3" t="n">
-        <v>532.9594726600656</v>
+        <v>900.09141451049</v>
       </c>
       <c r="M3" t="n">
-        <v>796.8990041555533</v>
+        <v>1304.992176928754</v>
       </c>
       <c r="N3" t="n">
-        <v>1437.922213775447</v>
+        <v>1590.326047362088</v>
       </c>
       <c r="O3" t="n">
         <v>1829.130999113547</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.79985532281972</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="C4" t="n">
-        <v>51.79985532281972</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D4" t="n">
         <v>51.79985532281972</v>
@@ -4510,28 +4510,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>969.1310894780056</v>
       </c>
       <c r="U4" t="n">
-        <v>1044.683643607215</v>
+        <v>679.9944624701077</v>
       </c>
       <c r="V4" t="n">
-        <v>789.9991554013277</v>
+        <v>650.6986247767029</v>
       </c>
       <c r="W4" t="n">
-        <v>500.5819853643671</v>
+        <v>650.6986247767029</v>
       </c>
       <c r="X4" t="n">
-        <v>272.5924344663498</v>
+        <v>422.7090738786856</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.79985532281972</v>
+        <v>201.9164947351555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>169.5545250471068</v>
+        <v>1138.265482913481</v>
       </c>
       <c r="C5" t="n">
-        <v>169.5545250471068</v>
+        <v>769.3029659730689</v>
       </c>
       <c r="D5" t="n">
-        <v>169.5545250471068</v>
+        <v>769.3029659730689</v>
       </c>
       <c r="E5" t="n">
-        <v>169.5545250471068</v>
+        <v>383.5147133748247</v>
       </c>
       <c r="F5" t="n">
-        <v>162.6090242979033</v>
+        <v>376.5692126256212</v>
       </c>
       <c r="G5" t="n">
-        <v>150.9675865384393</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477384</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4595,22 +4595,22 @@
         <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961805</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V5" t="n">
-        <v>1672.528110618234</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="W5" t="n">
-        <v>1319.75945534812</v>
+        <v>1528.404814889292</v>
       </c>
       <c r="X5" t="n">
-        <v>946.2936970870403</v>
+        <v>1528.404814889292</v>
       </c>
       <c r="Y5" t="n">
-        <v>556.1543651112286</v>
+        <v>1138.265482913481</v>
       </c>
     </row>
     <row r="6">
@@ -4629,40 +4629,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>125.2371614729357</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>573.7192355186012</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
-        <v>871.0311846349159</v>
+        <v>942.9699568457228</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.337074127241</v>
+        <v>1445.313588985732</v>
       </c>
       <c r="N6" t="n">
-        <v>1627.746635452984</v>
+        <v>1835.723150311474</v>
       </c>
       <c r="O6" t="n">
-        <v>1962.675316168515</v>
+        <v>2170.651831027005</v>
       </c>
       <c r="P6" t="n">
-        <v>2212.152044033533</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q6" t="n">
         <v>2536.977948259489</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>750.9131921027803</v>
+        <v>205.6303025501061</v>
       </c>
       <c r="C7" t="n">
-        <v>750.9131921027803</v>
+        <v>205.6303025501061</v>
       </c>
       <c r="D7" t="n">
-        <v>600.7965526904445</v>
+        <v>205.6303025501061</v>
       </c>
       <c r="E7" t="n">
-        <v>452.8834591080514</v>
+        <v>57.71720896771299</v>
       </c>
       <c r="F7" t="n">
-        <v>305.993511610141</v>
+        <v>57.71720896771299</v>
       </c>
       <c r="G7" t="n">
-        <v>305.993511610141</v>
+        <v>57.71720896771299</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>57.71720896771299</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1490.955094448418</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1268.020519990399</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>978.9027430007976</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="V7" t="n">
-        <v>978.9027430007976</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="W7" t="n">
-        <v>978.9027430007976</v>
+        <v>836.0608974218933</v>
       </c>
       <c r="X7" t="n">
-        <v>750.9131921027803</v>
+        <v>608.0713465238759</v>
       </c>
       <c r="Y7" t="n">
-        <v>750.9131921027803</v>
+        <v>387.2787673803458</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1519.561383463179</v>
+        <v>1228.611478699728</v>
       </c>
       <c r="C8" t="n">
-        <v>1150.598866522767</v>
+        <v>859.6489617593168</v>
       </c>
       <c r="D8" t="n">
-        <v>792.3331679160169</v>
+        <v>521.6655165789028</v>
       </c>
       <c r="E8" t="n">
-        <v>406.5449153177727</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="F8" t="n">
-        <v>63.4412930822837</v>
+        <v>128.9317632314552</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4835,19 +4835,19 @@
         <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797415</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="W8" t="n">
-        <v>1906.161223527301</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="X8" t="n">
-        <v>1906.161223527301</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="Y8" t="n">
-        <v>1906.161223527301</v>
+        <v>1615.21131876385</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431329</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594476</v>
+        <v>797.9970924135762</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951773</v>
+        <v>1164.302981905902</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1554.712543231644</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.6319074814764</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C10" t="n">
-        <v>664.6957245535696</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D10" t="n">
-        <v>514.5790851412338</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4960,52 +4960,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1598.526144867854</v>
+        <v>836.3602904692523</v>
       </c>
       <c r="V10" t="n">
-        <v>1343.841656661967</v>
+        <v>581.6758022633654</v>
       </c>
       <c r="W10" t="n">
-        <v>1054.424486625006</v>
+        <v>581.6758022633654</v>
       </c>
       <c r="X10" t="n">
-        <v>1054.424486625006</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.6319074814764</v>
+        <v>233.4483201530594</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101826</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038328</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797729</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138397</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5358,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072725</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,31 +5525,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>208.9886740942255</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>542.9134462654462</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>542.9134462654462</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891998</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453433</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453433</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>555.8158034133954</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>555.8158034133954</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2239.024748160891</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2019.423283183833</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1730.34805652803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1475.663568322143</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1186.246398285183</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>958.2568473871653</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>737.4642682436352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6680,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,16 +6780,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6950,34 +6950,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,46 +7166,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,7 +7427,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>270.906955875391</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079757</v>
+        <v>194.1476369739856</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -7997,7 +7997,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8061,16 +8061,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>142.3850817401784</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945059</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>153.9432662491317</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>10.05242792961577</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.1830914177568</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>137.4118612602866</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740396</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>200.7458546176087</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>309.1863928326897</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906576</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>-2.013056786809326e-12</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>67.54000767002731</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.4949402405091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.75554125013184</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187121</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>84.99383243580201</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.54258064659072</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431582</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431582</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187579</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>46.24115926564453</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792457.430382867</v>
+        <v>792457.4303828669</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792457.430382867</v>
+        <v>792457.4303828669</v>
       </c>
     </row>
     <row r="7">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.37164482</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448202</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448194</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448195</v>
-      </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597545</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597547</v>
@@ -26344,13 +26344,13 @@
         <v>625538.6147597546</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597546</v>
@@ -26366,13 +26366,13 @@
         <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898924</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457505</v>
+        <v>500888.867745751</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695013</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695024</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695073</v>
+        <v>6287.480531694969</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695059</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695058</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="J4" t="n">
+        <v>6287.480531695075</v>
+      </c>
+      <c r="K4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="K4" t="n">
-        <v>6287.480531695061</v>
-      </c>
       <c r="L4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695048</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695064</v>
+        <v>6287.480531695033</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695034</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-552506.4779427297</v>
+        <v>-552506.4779427294</v>
       </c>
       <c r="C6" t="n">
-        <v>240995.1677681695</v>
+        <v>240995.1677681702</v>
       </c>
       <c r="D6" t="n">
-        <v>413759.5275580616</v>
+        <v>413759.5275580621</v>
       </c>
       <c r="E6" t="n">
-        <v>17239.73665840211</v>
+        <v>17204.99873296575</v>
       </c>
       <c r="F6" t="n">
-        <v>518128.6044041527</v>
+        <v>518093.866478717</v>
       </c>
       <c r="G6" t="n">
-        <v>518128.6044041527</v>
+        <v>518093.8664787173</v>
       </c>
       <c r="H6" t="n">
-        <v>518128.6044041527</v>
+        <v>518093.8664787173</v>
       </c>
       <c r="I6" t="n">
-        <v>518128.6044041527</v>
+        <v>518093.8664787168</v>
       </c>
       <c r="J6" t="n">
-        <v>348714.5875781043</v>
+        <v>348679.8496526689</v>
       </c>
       <c r="K6" t="n">
-        <v>518128.6044041525</v>
+        <v>518093.8664787168</v>
       </c>
       <c r="L6" t="n">
-        <v>518128.6044041524</v>
+        <v>518093.8664787166</v>
       </c>
       <c r="M6" t="n">
-        <v>387244.1474999171</v>
+        <v>387209.4095744816</v>
       </c>
       <c r="N6" t="n">
-        <v>518128.6044041524</v>
+        <v>518093.866478717</v>
       </c>
       <c r="O6" t="n">
-        <v>518128.6044041525</v>
+        <v>518093.866478717</v>
       </c>
       <c r="P6" t="n">
-        <v>518128.6044041524</v>
+        <v>518093.8664787168</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.53661033346719e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.53661033346719e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522338</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918289</v>
+        <v>428.2691096918296</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.53661033346719e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>339.9664944694686</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>398.0464401909562</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.39178164144988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>223.1347640073573</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>390.7896469005556</v>
       </c>
       <c r="H5" t="n">
-        <v>267.4457987926761</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.63247940455679</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>40.01687938568585</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>20.07943089207322</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>67.2034597285774</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>238.2536491865416</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>99.54910145192902</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31288,37 +31288,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,7 +31361,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31382,19 +31382,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31440,25 +31440,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837063</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31628,13 +31628,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
@@ -31686,7 +31686,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979552</v>
@@ -31698,22 +31698,22 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>567.4250434254218</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>538.5853835133116</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>241.3877517590772</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>430.400187030115</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,28 +32552,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,22 +32789,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,22 +33263,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>473.8581708471796</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,34 +33977,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241328</v>
+        <v>357.5769420901427</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315071</v>
@@ -34708,7 +34708,7 @@
         <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
@@ -34717,7 +34717,7 @@
         <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
         <v>39.52180169138521</v>
@@ -34781,16 +34781,16 @@
         <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>408.9906691093579</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>395.1603892304033</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
         <v>492.5324261689369</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>74.17909712132929</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>507.4178102424335</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>25.33729477225504</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,10 +35100,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35112,7 +35112,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671837</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>501.0609547350983</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978365</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597958</v>
@@ -35343,13 +35343,13 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>436.0833313420885</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096334</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912933</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.5501250924105</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>291.8458072502408</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
